--- a/data/Subset 1/HILLARY LEWIS-WOLFSEN pt 7_.xlsx
+++ b/data/Subset 1/HILLARY LEWIS-WOLFSEN pt 7_.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
